--- a/data/productos.xlsx
+++ b/data/productos.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,153 +436,41 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Producto</t>
+          <t>Nombre</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
           <t>Precio</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Categoría</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Existencias</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Salchipapas2</t>
+          <t>Coca Cola</t>
         </is>
       </c>
       <c r="B2" t="n">
         <v>2</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Chochos con tostado</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Coca cola pequeña</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Gaseosa de sabores mediana</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Agua sin gas</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Fuze Tea mediano</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>2.2</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Coca cola grande</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Gaseosa de sabores grande</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Fuze Tea grande</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Gatorade</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>2.8</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Papas sin marca</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Chifles de Sal</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Chifles de Dulce</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Galletitas</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>0.8</v>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>General</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/data/productos.xlsx
+++ b/data/productos.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,19 +458,37 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Coca Cola</t>
+          <t>Salchipapa</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>General</t>
+          <t>Comida</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>30</v>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Gorro de baño</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Otros</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/data/productos.xlsx
+++ b/data/productos.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -470,13 +470,13 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>20</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Gorro de baño</t>
+          <t>Coca cola</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -484,11 +484,47 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
+          <t>Bebida</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Gorro de baño</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
           <t>Otros</t>
         </is>
       </c>
-      <c r="D3" t="n">
-        <v>20</v>
+      <c r="D4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Chochos con tostado</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Comida</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/data/productos.xlsx
+++ b/data/productos.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,7 +458,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Salchipapa</t>
+          <t>Salchipapas</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -470,7 +470,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -480,7 +480,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -488,17 +488,17 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Gorro de baño</t>
+          <t>gorros</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -506,25 +506,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Chochos con tostado</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>1</v>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Comida</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/data/productos.xlsx
+++ b/data/productos.xlsx
@@ -458,11 +458,11 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Salchipapas</t>
+          <t>chochos</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -476,29 +476,29 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Coca cola</t>
+          <t>cola</t>
         </is>
       </c>
       <c r="B3" t="n">
+        <v>5</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Bebida</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
         <v>2</v>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Bebida</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>10</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>gorros</t>
+          <t>gorro</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -506,7 +506,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
